--- a/いろいろ/DB設計.Ver1.xlsx
+++ b/いろいろ/DB設計.Ver1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koyama\Dropbox\終わり\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koyama\Documents\sotsusei2019PKR\いろいろ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -481,9 +481,6 @@
     <t>フォローされたユーザーのID</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>mailaddress</t>
   </si>
   <si>
@@ -500,9 +497,6 @@
   </si>
   <si>
     <t>followers</t>
-  </si>
-  <si>
-    <t>registered_date</t>
   </si>
   <si>
     <t>Follow表</t>
@@ -558,14 +552,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>post_count</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>likes_count</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>password</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -606,18 +592,6 @@
     <t>FOREGIN KEY(Users.managementID)</t>
   </si>
   <si>
-    <t>follower_managementID</t>
-  </si>
-  <si>
-    <t>followers_managementID</t>
-  </si>
-  <si>
-    <t>send_managementID</t>
-  </si>
-  <si>
-    <t>sent_managementID</t>
-  </si>
-  <si>
     <t>DM = Directmail</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -626,14 +600,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>coment_replyID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>coment_reply</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>good</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -739,14 +705,6 @@
   </si>
   <si>
     <t>NUMBER(1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>active_managementID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>passive_managementID</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -799,11 +757,59 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Ripry</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ripry_Like</t>
+    <t>Reply_Like</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reply</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>postcount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>likescount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>registereddate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comentreplyID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comentreply</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>activeManagementID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>passiveManagementID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>followerManagementID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>followersManagementID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sendManagementID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sentManagementID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>username</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1363,8 +1369,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1418,7 +1424,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>46</v>
@@ -1427,7 +1433,7 @@
         <v>51</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>9</v>
@@ -1436,7 +1442,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>53</v>
@@ -1445,7 +1451,7 @@
         <v>67</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>70</v>
@@ -1454,7 +1460,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>22</v>
@@ -1463,7 +1469,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>0</v>
@@ -1472,7 +1478,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>47</v>
@@ -1481,7 +1487,7 @@
         <v>67</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>43</v>
@@ -1490,7 +1496,7 @@
     </row>
     <row r="10" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>58</v>
@@ -1499,7 +1505,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>1</v>
@@ -1508,7 +1514,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>30</v>
@@ -1522,7 +1528,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>48</v>
@@ -1533,12 +1539,12 @@
         <v>32</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>21</v>
@@ -1554,7 +1560,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>23</v>
@@ -1570,7 +1576,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>23</v>
@@ -1586,7 +1592,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>24</v>
@@ -1602,7 +1608,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>23</v>
@@ -1618,7 +1624,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
@@ -1627,7 +1633,7 @@
         <v>11</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>2</v>
@@ -1669,7 +1675,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>23</v>
@@ -1678,7 +1684,7 @@
         <v>51</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>49</v>
@@ -1687,16 +1693,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>34</v>
@@ -1705,7 +1711,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>55</v>
@@ -1719,7 +1725,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>56</v>
@@ -1735,7 +1741,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>28</v>
@@ -1790,16 +1796,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>34</v>
@@ -1808,16 +1814,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>49</v>
@@ -1826,7 +1832,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="5" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>50</v>
@@ -1834,7 +1840,7 @@
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="F34" s="5">
         <v>1</v>
@@ -1846,7 +1852,7 @@
     <row r="36" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="37" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -1876,16 +1882,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>9</v>
@@ -1894,16 +1900,16 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>49</v>
@@ -1912,7 +1918,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>23</v>
@@ -1921,7 +1927,7 @@
         <v>67</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>71</v>
@@ -1932,7 +1938,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>26</v>
@@ -1946,7 +1952,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="5" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>31</v>
@@ -1955,7 +1961,7 @@
         <v>67</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>68</v>
@@ -1966,7 +1972,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="5" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>26</v>
@@ -1984,7 +1990,7 @@
     <row r="46" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="47" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
@@ -2014,16 +2020,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>34</v>
@@ -2032,16 +2038,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>49</v>
@@ -2050,16 +2056,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>71</v>
@@ -2068,7 +2074,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" s="5" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>50</v>
@@ -2076,7 +2082,7 @@
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="F52" s="5">
         <v>1</v>
@@ -2084,12 +2090,12 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" s="6" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" s="6" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
@@ -2125,7 +2131,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" s="9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>23</v>
@@ -2134,7 +2140,7 @@
         <v>51</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>19</v>
@@ -2143,16 +2149,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>40</v>
@@ -2161,16 +2167,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>41</v>
@@ -2179,25 +2185,25 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="F63" s="1"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>10</v>
@@ -2206,7 +2212,7 @@
         <v>11</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>20</v>
@@ -2218,7 +2224,7 @@
     <row r="66" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="67" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A67" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
@@ -2248,7 +2254,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69" s="9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B69" s="9" t="s">
         <v>39</v>
@@ -2257,7 +2263,7 @@
         <v>51</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>42</v>
@@ -2266,16 +2272,16 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>72</v>
@@ -2284,16 +2290,16 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>73</v>
@@ -2311,7 +2317,7 @@
       <c r="E74" s="15"/>
       <c r="F74" s="16"/>
       <c r="G74" s="11" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -2336,16 +2342,16 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76" s="9" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="B76" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E76" s="9" t="s">
         <v>59</v>
@@ -2354,16 +2360,16 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
-        <v>112</v>
+        <v>153</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>60</v>
@@ -2372,7 +2378,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>66</v>
@@ -2386,7 +2392,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>65</v>
@@ -2400,7 +2406,7 @@
     </row>
     <row r="82" spans="1:6" ht="24" x14ac:dyDescent="0.4">
       <c r="A82" s="12" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B82" s="13"/>
       <c r="C82" s="13"/>
